--- a/biology/Zoologie/Anonchotaenia/Anonchotaenia.xlsx
+++ b/biology/Zoologie/Anonchotaenia/Anonchotaenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anonchotaenia est un genre de cestodes de la famille des Paruterinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Anonchotaenia a été créé en 1900 par le zoologiste allemand Ludwig Cohn (d) (1873-1935)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Anonchotaenia a été créé en 1900 par le zoologiste allemand Ludwig Cohn (d) (1873-1935).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon la classification de Hallan :
 Anonchotaenia (Anonchotaenia) Cohn, 1900
@@ -584,7 +600,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Ludwig Cohn, « Zur Kenntnis einiger Vogeltaenien », Zoologischer Anzeiger, Elsevier, vol. 23,‎ 1900, p. 91-98 (ISSN 0044-5231 et 1873-2674, OCLC 300273791, lire en ligne)</t>
         </is>
